--- a/resultado_dea.xlsx
+++ b/resultado_dea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,6 @@
           <t>Eff_VRS_MAX</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Eff_SBM_CRS</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Eff_SBM_VRS</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,12 +488,6 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>-18.597</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,12 +512,6 @@
       <c r="F3" t="n">
         <v>1.0262</v>
       </c>
-      <c r="G3" t="n">
-        <v>-15.2172</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.0046</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,12 +536,6 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>-27.3991</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8496</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -588,12 +560,6 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>-40633.133</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -618,12 +584,6 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>-6.8729</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-4.9051</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -648,12 +608,6 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>-395.0969</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -678,12 +632,6 @@
       <c r="F8" t="n">
         <v>1.0779</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.3428</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.9801</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -708,12 +656,6 @@
       <c r="F9" t="n">
         <v>1.0105</v>
       </c>
-      <c r="G9" t="n">
-        <v>-23577.2309</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-3.7816</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -738,12 +680,6 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>-1617.0389</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -768,12 +704,6 @@
       <c r="F11" t="n">
         <v>1.1183</v>
       </c>
-      <c r="G11" t="n">
-        <v>-0.9503</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7457</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -798,12 +728,6 @@
       <c r="F12" t="n">
         <v>1.0549</v>
       </c>
-      <c r="G12" t="n">
-        <v>-294.8499</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4642</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -828,12 +752,6 @@
       <c r="F13" t="n">
         <v>1.2796</v>
       </c>
-      <c r="G13" t="n">
-        <v>-1141.3407</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7336</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -858,12 +776,6 @@
       <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>-11.1326</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-27.1488</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -888,12 +800,6 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
-        <v>-101855.8855</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -918,12 +824,6 @@
       <c r="F16" t="n">
         <v>1.0289</v>
       </c>
-      <c r="G16" t="n">
-        <v>-901933.3455000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-136.309</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -948,12 +848,6 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
-        <v>-263352.4597</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-78.39239999999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -978,12 +872,6 @@
       <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1007,12 +895,6 @@
       </c>
       <c r="F19" t="n">
         <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-14.3914</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9999</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_dea.xlsx
+++ b/resultado_dea.xlsx
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9745</v>
+        <v>0.9636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9772</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0262</v>
+        <v>1.0378</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9636</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0378</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9745</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9772</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>1.0262</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>1.0262</v>
       </c>
     </row>
     <row r="6">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9176</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9199000000000001</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0898</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9352</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9445</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0693</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.971</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>1.0299</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>1.0236</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8333</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9297</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9191</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9252</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.088</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7635</v>
+        <v>0.9885</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8433</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.3097</v>
+        <v>1.0116</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9885</v>
+        <v>0.7635</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.8433</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0116</v>
+        <v>1.3097</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>1.2796</v>
       </c>
     </row>
     <row r="15">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.971</v>
+        <v>0.9352</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9726</v>
+        <v>0.9367</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0299</v>
+        <v>1.0693</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0289</v>
+        <v>1.0603</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9176</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9186</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>1.0898</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>1.0863</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.9191</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.924</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>1.088</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>1.0807</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.8333</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9297</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>1.1183</v>
       </c>
     </row>
   </sheetData>
